--- a/Comparativa Belive VS Orchard.xlsx
+++ b/Comparativa Belive VS Orchard.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2805" windowWidth="27240" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="5925" yWindow="2805" windowWidth="27240" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Spotify" sheetId="1" r:id="rId1"/>
     <sheet name="Amazon" sheetId="2" r:id="rId2"/>
     <sheet name="YouTube" sheetId="3" r:id="rId3"/>
     <sheet name="Deezer" sheetId="4" r:id="rId4"/>
+    <sheet name="Tidal" sheetId="5" r:id="rId5"/>
+    <sheet name="Apple" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="118">
   <si>
     <t>Plataforma</t>
   </si>
@@ -378,6 +380,15 @@
   <si>
     <t>Deezer</t>
   </si>
+  <si>
+    <t>TIDAL</t>
+  </si>
+  <si>
+    <t>Eurozona</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +461,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -563,11 +586,62 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="54">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -651,6 +725,90 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1066,16 +1224,16 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Plataforma"/>
-    <tableColumn id="2" name="Region" dataDxfId="40"/>
+    <tableColumn id="2" name="Region" dataDxfId="53"/>
     <tableColumn id="3" name="Belive"/>
     <tableColumn id="4" name="Orchard"/>
-    <tableColumn id="5" name="Fonarte" dataDxfId="39">
+    <tableColumn id="5" name="Fonarte" dataDxfId="52">
       <calculatedColumnFormula>Tabla1[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="38">
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="51">
       <calculatedColumnFormula>Tabla1[[#This Row],[Orchard]]-Tabla1[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="37">
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="50">
       <calculatedColumnFormula>Tabla1[[#This Row],[Fonarte]]-Tabla1[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1084,20 +1242,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G99" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G99" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A1:G99"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Plataforma"/>
     <tableColumn id="2" name="Region"/>
     <tableColumn id="3" name="Belive"/>
     <tableColumn id="4" name="Orchard"/>
-    <tableColumn id="5" name="Fonarte" dataDxfId="33">
+    <tableColumn id="5" name="Fonarte" dataDxfId="46">
       <calculatedColumnFormula>Tabla2[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="32">
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="45">
       <calculatedColumnFormula>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="31">
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="44">
       <calculatedColumnFormula>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1106,20 +1264,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="I1:O99" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="I1:O99" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="I1:O99"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Plataforma"/>
     <tableColumn id="2" name="Region"/>
     <tableColumn id="3" name="Belive"/>
     <tableColumn id="4" name="Orchard"/>
-    <tableColumn id="5" name="Fonarte" dataDxfId="27">
+    <tableColumn id="5" name="Fonarte" dataDxfId="40">
       <calculatedColumnFormula>Tabla3[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="26">
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="39">
       <calculatedColumnFormula>Tabla3[[#This Row],[Orchard]]-Tabla3[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="25">
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="38">
       <calculatedColumnFormula>Tabla3[[#This Row],[Fonarte]]-Tabla3[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1128,20 +1286,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:G99" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:G99" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A1:G99"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Plataforma" dataDxfId="21"/>
-    <tableColumn id="2" name="Region" dataDxfId="20"/>
-    <tableColumn id="3" name="Belive" dataDxfId="19"/>
+    <tableColumn id="1" name="Plataforma" dataDxfId="34"/>
+    <tableColumn id="2" name="Region" dataDxfId="33"/>
+    <tableColumn id="3" name="Belive" dataDxfId="32"/>
     <tableColumn id="4" name="Orchard"/>
-    <tableColumn id="5" name="Fonarte" dataDxfId="18">
+    <tableColumn id="5" name="Fonarte" dataDxfId="31">
       <calculatedColumnFormula>Tabla4[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="17">
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="30">
       <calculatedColumnFormula>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="16">
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="29">
       <calculatedColumnFormula>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1150,20 +1308,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="I1:O99" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="I1:O99" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="I1:O99"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Plataforma" dataDxfId="12"/>
-    <tableColumn id="2" name="Region" dataDxfId="11"/>
-    <tableColumn id="3" name="Belive" dataDxfId="10"/>
+    <tableColumn id="1" name="Plataforma" dataDxfId="25"/>
+    <tableColumn id="2" name="Region" dataDxfId="24"/>
+    <tableColumn id="3" name="Belive" dataDxfId="23"/>
     <tableColumn id="4" name="Orchard"/>
-    <tableColumn id="5" name="Fonarte" dataDxfId="9">
+    <tableColumn id="5" name="Fonarte" dataDxfId="22">
       <calculatedColumnFormula>Tabla5[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="8">
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="21">
       <calculatedColumnFormula>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="7">
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="20">
       <calculatedColumnFormula>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1172,21 +1330,68 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:G99" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:G99" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:G99"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Plataforma" dataDxfId="4"/>
+    <tableColumn id="1" name="Plataforma" dataDxfId="16"/>
+    <tableColumn id="2" name="Region"/>
+    <tableColumn id="3" name="Belive"/>
+    <tableColumn id="4" name="Orchard"/>
+    <tableColumn id="5" name="Fonarte" dataDxfId="15">
+      <calculatedColumnFormula>Tabla6[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="14">
+      <calculatedColumnFormula>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="13">
+      <calculatedColumnFormula>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A1:G99" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A1:G99"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Plataforma" dataDxfId="10"/>
+    <tableColumn id="2" name="Region"/>
+    <tableColumn id="3" name="Belive"/>
+    <tableColumn id="4" name="Orchard"/>
+    <tableColumn id="5" name="Fonarte" dataDxfId="8">
+      <calculatedColumnFormula>Tabla7[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="7">
+      <calculatedColumnFormula>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="6">
+      <calculatedColumnFormula>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A1:G100" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:G100"/>
+  <sortState ref="A2:G100">
+    <sortCondition ref="B1:B100"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Plataforma"/>
     <tableColumn id="2" name="Region"/>
     <tableColumn id="3" name="Belive"/>
     <tableColumn id="4" name="Orchard"/>
     <tableColumn id="5" name="Fonarte" dataDxfId="2">
-      <calculatedColumnFormula>Tabla6[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabla8[[#This Row],[Orchard]]*0.75</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Diferencia Orchard - Belive" dataDxfId="1">
-      <calculatedColumnFormula>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Diferencia Fonarte - Belive" dataDxfId="0">
-      <calculatedColumnFormula>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1482,7 +1687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1492,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3862,8 +4067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3955,19 +4160,19 @@
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>4.1617637232400008E-2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <f>Tabla3[[#This Row],[Orchard]]*0.75</f>
-        <v>3.1213227924300008E-2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
         <f>Tabla3[[#This Row],[Orchard]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>4.1617637232400008E-2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
         <f>Tabla3[[#This Row],[Fonarte]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>3.1213227924300008E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4231,19 +4436,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.19509331648150002</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.146319987361125</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.19509331648150002</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.146319987361125</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>108</v>
@@ -4481,19 +4686,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.12638800542450002</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>9.4791004068375012E-2</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.12638800542450002</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>9.4791004068375012E-2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>108</v>
@@ -4581,19 +4786,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.1366077756399998E-2</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>5.3524558317299999E-2</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>7.1366077756399998E-2</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>5.3524558317299999E-2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>108</v>
@@ -4731,19 +4936,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.3029625269999995E-2</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>2.4772218952499994E-2</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>3.3029625269999995E-2</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>2.4772218952499994E-2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>108</v>
@@ -4781,19 +4986,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.0676544474571427E-2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>6.050740835592857E-2</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>8.0676544474571427E-2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>6.050740835592857E-2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>108</v>
@@ -4831,19 +5036,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.0539775878000009E-2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>6.790483190850001E-2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>9.0539775878000009E-2</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>6.790483190850001E-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>108</v>
@@ -4881,19 +5086,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.9917082820750001E-2</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>5.2437812115562504E-2</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>6.9917082820750001E-2</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>5.2437812115562504E-2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>108</v>
@@ -5231,19 +5436,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>9.2829433981222204E-2</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>6.9622075485916646E-2</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>9.2829433981222204E-2</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>6.9622075485916646E-2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>108</v>
@@ -5331,19 +5536,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0.20039779504266667</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.15029834628200001</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.20039779504266667</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.15029834628200001</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>108</v>
@@ -5481,19 +5686,19 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>7.0939669839666666E-2</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>5.3204752379750003E-2</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>7.0939669839666666E-2</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>5.3204752379750003E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>108</v>
@@ -5531,19 +5736,19 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>5.2049551653000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>3.9037163739749997E-2</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>5.2049551653000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>3.9037163739749997E-2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>108</v>
@@ -5731,19 +5936,19 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0.1855547676</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.1391660757</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.1855547676</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.1391660757</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>108</v>
@@ -5781,19 +5986,19 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0.17665251585550001</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.13248938689162501</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.17665251585550001</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.13248938689162501</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>108</v>
@@ -5805,19 +6010,19 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>3.5746289615999995E-2</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <f>Tabla3[[#This Row],[Orchard]]*0.75</f>
-        <v>2.6809717211999998E-2</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <f>Tabla3[[#This Row],[Orchard]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>3.5746289615999995E-2</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <f>Tabla3[[#This Row],[Fonarte]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>2.6809717211999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -5881,19 +6086,19 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.16989619266933331</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.12742214450199998</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.16989619266933331</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.12742214450199998</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>108</v>
@@ -5981,19 +6186,19 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.20194244503340003</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.15145683377505004</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.20194244503340003</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.15145683377505004</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>108</v>
@@ -6005,19 +6210,19 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>6.3974966576000006E-2</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <f>Tabla3[[#This Row],[Orchard]]*0.75</f>
-        <v>4.7981224932000008E-2</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f>Tabla3[[#This Row],[Orchard]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>6.3974966576000006E-2</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <f>Tabla3[[#This Row],[Fonarte]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>4.7981224932000008E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -6931,19 +7136,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.17404943910499998</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.13053707932874997</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.17404943910499998</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.13053707932874997</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>108</v>
@@ -7205,19 +7410,19 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>2.0815658978888887E-2</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <f>Tabla3[[#This Row],[Orchard]]*0.75</f>
-        <v>1.5611744234166666E-2</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <f>Tabla3[[#This Row],[Orchard]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>2.0815658978888887E-2</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <f>Tabla3[[#This Row],[Fonarte]]-Tabla3[[#This Row],[Belive]]</f>
-        <v>1.5611744234166666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -7231,19 +7436,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0.20455223225583333</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <f>Tabla2[[#This Row],[Orchard]]*0.75</f>
-        <v>0.153414174191875</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <f>Tabla2[[#This Row],[Orchard]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.20455223225583333</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <f>Tabla2[[#This Row],[Fonarte]]-Tabla2[[#This Row],[Belive]]</f>
-        <v>0.153414174191875</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>108</v>
@@ -8830,19 +9035,19 @@
       </c>
       <c r="D101">
         <f>AVERAGE(Tabla2[Orchard])</f>
-        <v>4.1243605028604781E-2</v>
+        <v>1.8836722670019637E-2</v>
       </c>
       <c r="E101">
         <f>AVERAGE(Tabla2[Fonarte])</f>
-        <v>3.093270377145358E-2</v>
+        <v>1.412754200251473E-2</v>
       </c>
       <c r="F101">
         <f>D101-C101</f>
-        <v>2.8607941717806937E-2</v>
+        <v>6.2010593592217913E-3</v>
       </c>
       <c r="G101">
         <f>E101-C101</f>
-        <v>1.8297040460655736E-2</v>
+        <v>1.4918786917168837E-3</v>
       </c>
       <c r="I101" t="s">
         <v>106</v>
@@ -8853,19 +9058,19 @@
       </c>
       <c r="L101">
         <f>AVERAGE(Tabla3[Orchard])</f>
-        <v>5.8409144259093633E-3</v>
+        <v>4.1862761360798835E-3</v>
       </c>
       <c r="M101">
         <f>AVERAGE(Tabla3[Fonarte])</f>
-        <v>4.3806858194320219E-3</v>
+        <v>3.1397071020599129E-3</v>
       </c>
       <c r="N101">
         <f>L101-K101</f>
-        <v>4.4289031107320161E-3</v>
+        <v>2.7742648209025363E-3</v>
       </c>
       <c r="O101">
         <f>M101-K101</f>
-        <v>2.9686745042546746E-3</v>
+        <v>1.7276957868825658E-3</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -8904,8 +9109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9097,19 +9302,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>3.1600145326245548E-2</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.3700108994684159E-2</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.1600145326245548E-2</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.3700108994684159E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -9197,19 +9402,19 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>3.1617620095823189E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.371321507186739E-2</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.1617620095823189E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.371321507186739E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -9297,19 +9502,19 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.10508610403538096</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>7.8814578026535714E-2</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.10508610403538096</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.8814578026535714E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -9397,19 +9602,19 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.19243366708427778</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>0.14432525031320834</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.19243366708427778</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.14432525031320834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -9447,19 +9652,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.4624029098215913E-2</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>1.0968021823661935E-2</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.4624029098215913E-2</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.0968021823661935E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -9547,19 +9752,19 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.9665243981776117E-2</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.7248932986332084E-2</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.9665243981776117E-2</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.7248932986332084E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -9647,19 +9852,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.3532549271820022E-2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.2649411953865018E-2</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.3532549271820022E-2</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.2649411953865018E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -9747,19 +9952,19 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.2619124449890187E-2</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.4464343337417642E-2</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.2619124449890187E-2</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.4464343337417642E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -9797,19 +10002,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.2141824408755559E-2</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.1606368306566671E-2</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.2141824408755559E-2</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.1606368306566671E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -9847,19 +10052,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.7015386610763354E-2</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.7761539958072515E-2</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.7015386610763354E-2</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.7761539958072515E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -9897,19 +10102,19 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.12984884856088572</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>9.738663642066428E-2</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.12984884856088572</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.738663642066428E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -9947,19 +10152,19 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.3970306474910451E-2</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>1.7977729856182838E-2</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.3970306474910451E-2</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.7977729856182838E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -9997,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.12812649522625</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>9.6094871419687505E-2</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.12812649522625</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.6094871419687505E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -10147,19 +10352,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.6497246611865675E-2</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>1.9872934958899257E-2</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.6497246611865675E-2</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.9872934958899257E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -10223,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>8.333205971698783E-2</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>6.2499044787740876E-2</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>8.333205971698783E-2</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>6.2499044787740876E-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>113</v>
@@ -10247,19 +10452,19 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.14353717117706249</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>0.10765287838279687</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.14353717117706249</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.10765287838279687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -10297,19 +10502,19 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>4.1200485147153867E-2</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.0900363860365401E-2</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.1200485147153867E-2</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.0900363860365401E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -10323,19 +10528,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>7.0409728440172847E-2</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>5.2807296330129636E-2</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>7.0409728440172847E-2</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.2807296330129636E-2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>113</v>
@@ -10347,19 +10552,19 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.12961704037839999</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>9.7212780283799996E-2</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.12961704037839999</v>
+        <v>0</v>
       </c>
       <c r="O29">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.7212780283799996E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -10397,19 +10602,19 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>3.1392718232146156E-2</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.3544538674109619E-2</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.1392718232146156E-2</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.3544538674109619E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -10497,19 +10702,19 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>4.2260620907666684E-2</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.1695465680750011E-2</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.2260620907666684E-2</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.1695465680750011E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -10547,19 +10752,19 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>1.9566926820290941E-2</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>1.4675195115218205E-2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.9566926820290941E-2</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.4675195115218205E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -10597,19 +10802,19 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>7.8445836682549994E-2</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>5.8834377511912492E-2</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.8445836682549994E-2</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.8834377511912492E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -10623,19 +10828,19 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4.5893711647819996E-2</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>3.4420283735864997E-2</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>4.5893711647819996E-2</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>3.4420283735864997E-2</v>
+        <v>0</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>113</v>
@@ -10647,19 +10852,19 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>9.6662913185083313E-2</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>7.2497184888812488E-2</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.6662913185083313E-2</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.2497184888812488E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -10697,19 +10902,19 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.10771892149770453</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>8.0789191123278398E-2</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.10771892149770453</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.0789191123278398E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -10747,19 +10952,19 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>2.98674944746E-2</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.2400620855950001E-2</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.98674944746E-2</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.2400620855950001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -10797,19 +11002,19 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>6.8919159813062486E-2</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>5.1689369859796865E-2</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.8919159813062486E-2</v>
+        <v>0</v>
       </c>
       <c r="O38">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.1689369859796865E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -10847,19 +11052,19 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.10859867448321428</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>8.1449005862410717E-2</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.10859867448321428</v>
+        <v>0</v>
       </c>
       <c r="O39">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.1449005862410717E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -10897,19 +11102,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>3.6365913737031241E-2</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.7274435302773431E-2</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.6365913737031241E-2</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.7274435302773431E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -10947,19 +11152,19 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>3.635017807094594E-2</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.7262633553209455E-2</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.635017807094594E-2</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.7262633553209455E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -10997,19 +11202,19 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.15664520493339285</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>0.11748390370004463</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.15664520493339285</v>
+        <v>0</v>
       </c>
       <c r="O42">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.11748390370004463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -11047,19 +11252,19 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>9.0055587835695658E-2</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>6.754169087677174E-2</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.0055587835695658E-2</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.754169087677174E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -11147,19 +11352,19 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>4.0967575340346153E-2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.0725681505259617E-2</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.0967575340346153E-2</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.0725681505259617E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -11197,19 +11402,19 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.11409216231622223</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>8.5569121737166673E-2</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.11409216231622223</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.5569121737166673E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -11247,19 +11452,19 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>6.4905653534651164E-2</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>4.8679240150988373E-2</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.4905653534651164E-2</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.8679240150988373E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -11273,19 +11478,19 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>3.4073155421857147E-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>2.5554866566392859E-2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>3.4073155421857147E-2</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>2.5554866566392859E-2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>113</v>
@@ -11297,19 +11502,19 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.22552572914833333</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>0.16914429686124999</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.22552572914833333</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.16914429686124999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -11347,19 +11552,19 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>6.5664382456846138E-2</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>4.9248286842634603E-2</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.5664382456846138E-2</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.9248286842634603E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -11373,19 +11578,19 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2.8477572687714284E-2</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>2.1358179515785714E-2</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>2.8477572687714284E-2</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>2.1358179515785714E-2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>113</v>
@@ -11397,19 +11602,19 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.13321210661083335</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>9.9909079958125008E-2</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.13321210661083335</v>
+        <v>0</v>
       </c>
       <c r="O50">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.9909079958125008E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -11423,19 +11628,19 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>7.7746151880555524E-3</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>5.8309613910416643E-3</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>7.7746151880555524E-3</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.8309613910416643E-3</v>
+        <v>0</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>113</v>
@@ -11447,19 +11652,19 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0.123328988923</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>9.2496741692250001E-2</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.123328988923</v>
+        <v>0</v>
       </c>
       <c r="O51">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.2496741692250001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -11547,19 +11752,19 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>5.5199836968428569E-2</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>4.1399877726321428E-2</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.5199836968428569E-2</v>
+        <v>0</v>
       </c>
       <c r="O53">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.1399877726321428E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -11597,19 +11802,19 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.19334047811918517</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>0.14500535858938887</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.19334047811918517</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.14500535858938887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -11647,19 +11852,19 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>4.6449198471600006E-2</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.4836898853700005E-2</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.6449198471600006E-2</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.4836898853700005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -11673,19 +11878,19 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>2.0022600779090918E-2</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>1.5016950584318189E-2</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>2.0022600779090918E-2</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.5016950584318189E-2</v>
+        <v>0</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>113</v>
@@ -11697,19 +11902,19 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>9.8931014571250003E-2</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>7.4198260928437509E-2</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.8931014571250003E-2</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.4198260928437509E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -11747,19 +11952,19 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>8.9623781843666664E-2</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>6.7217836382750001E-2</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.9623781843666664E-2</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.7217836382750001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -11797,19 +12002,19 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>8.930382288359999E-2</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>6.6977867162699989E-2</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.930382288359999E-2</v>
+        <v>0</v>
       </c>
       <c r="O58">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.6977867162699989E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -11847,19 +12052,19 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>3.0107805277354835E-2</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.2580853958016126E-2</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.0107805277354835E-2</v>
+        <v>0</v>
       </c>
       <c r="O59">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.2580853958016126E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -11873,19 +12078,19 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1.67418007376E-2</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>1.2556350553200001E-2</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.67418007376E-2</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.2556350553200001E-2</v>
+        <v>0</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>113</v>
@@ -11897,19 +12102,19 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>5.0234717965499998E-2</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.7676038474124998E-2</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.0234717965499998E-2</v>
+        <v>0</v>
       </c>
       <c r="O60">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.7676038474124998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -11947,19 +12152,19 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>7.7699537692222237E-2</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>5.8274653269166678E-2</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.7699537692222237E-2</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.8274653269166678E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -11973,19 +12178,19 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>8.3305727571609381E-2</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>6.2479295678707039E-2</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>8.3305727571609381E-2</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>6.2479295678707039E-2</v>
+        <v>0</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>113</v>
@@ -11997,19 +12202,19 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>9.4101552595500015E-2</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>7.0576164446625012E-2</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.4101552595500015E-2</v>
+        <v>0</v>
       </c>
       <c r="O62">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.0576164446625012E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -12047,19 +12252,19 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>8.3981619386076928E-2</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>6.2986214539557689E-2</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.3981619386076928E-2</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.2986214539557689E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -12197,19 +12402,19 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>2.8715635961279996E-2</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.1536726970959999E-2</v>
+        <v>0</v>
       </c>
       <c r="N66">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.8715635961279996E-2</v>
+        <v>0</v>
       </c>
       <c r="O66">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.1536726970959999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -12247,19 +12452,19 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>1.3618729130740741E-2</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>1.0214046848055556E-2</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.3618729130740741E-2</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.0214046848055556E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -12273,19 +12478,19 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>8.7607293286599969E-2</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>6.570546996494997E-2</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>8.7607293286599969E-2</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>6.570546996494997E-2</v>
+        <v>0</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>113</v>
@@ -12297,19 +12502,19 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.13095709938771427</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>9.8217824540785703E-2</v>
+        <v>0</v>
       </c>
       <c r="N68">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.13095709938771427</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>9.8217824540785703E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -12373,19 +12578,19 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>1.1662095869941179E-2</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>8.7465719024558842E-3</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.1662095869941179E-2</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>8.7465719024558842E-3</v>
+        <v>0</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>113</v>
@@ -12397,19 +12602,19 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>7.3349482467749999E-2</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>5.5012111850812499E-2</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.3349482467749999E-2</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.5012111850812499E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -12447,19 +12652,19 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.11527994618340001</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>8.6459959637550016E-2</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>0.11527994618340001</v>
+        <v>0</v>
       </c>
       <c r="O71">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.6459959637550016E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -12547,19 +12752,19 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>5.1941615093517246E-2</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.8956211320137935E-2</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.1941615093517246E-2</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.8956211320137935E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -12647,19 +12852,19 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>4.6622099711237291E-2</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.4966574783427969E-2</v>
+        <v>0</v>
       </c>
       <c r="N75">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.6622099711237291E-2</v>
+        <v>0</v>
       </c>
       <c r="O75">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.4966574783427969E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -12747,19 +12952,19 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>7.5349737474999984E-2</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>5.6512303106249988E-2</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.5349737474999984E-2</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.6512303106249988E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -12773,19 +12978,19 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>4.6113129294999989E-3</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>3.4584846971249992E-3</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>4.6113129294999989E-3</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>3.4584846971249992E-3</v>
+        <v>0</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>113</v>
@@ -12847,19 +13052,19 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>7.9287001691000003E-2</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>5.9465251268250002E-2</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>7.9287001691000003E-2</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>5.9465251268250002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -12923,19 +13128,19 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>5.6560799863333315E-3</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>4.2420599897499984E-3</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.6560799863333315E-3</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>4.2420599897499984E-3</v>
+        <v>0</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>113</v>
@@ -13023,19 +13228,19 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>2.3901718799999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>1.7926289099999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>2.3901718799999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.7926289099999999E-3</v>
+        <v>0</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>113</v>
@@ -13123,19 +13328,19 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>9.6127269406250018E-3</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>7.2095452054687509E-3</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>9.6127269406250018E-3</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>7.2095452054687509E-3</v>
+        <v>0</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>113</v>
@@ -13147,19 +13352,19 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>4.7720187653285714E-2</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>3.5790140739964282E-2</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.7720187653285714E-2</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.5790140739964282E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -13223,19 +13428,19 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>8.6554352920999982E-3</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>6.4915764690749982E-3</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>8.6554352920999982E-3</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>6.4915764690749982E-3</v>
+        <v>0</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>113</v>
@@ -13247,19 +13452,19 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>6.4918397615750009E-2</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>4.8688798211812503E-2</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.4918397615750009E-2</v>
+        <v>0</v>
       </c>
       <c r="O87">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>4.8688798211812503E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -13273,19 +13478,19 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>4.0812010260000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>3.0609007695000003E-2</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>4.0812010260000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>3.0609007695000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>113</v>
@@ -13323,19 +13528,19 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>7.5912009419199997E-3</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>5.6934007064399998E-3</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>7.5912009419199997E-3</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.6934007064399998E-3</v>
+        <v>0</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>113</v>
@@ -13397,19 +13602,19 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>8.1926079647200001E-2</v>
+        <v>0</v>
       </c>
       <c r="M90">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>6.1444559735400001E-2</v>
+        <v>0</v>
       </c>
       <c r="N90">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>8.1926079647200001E-2</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>6.1444559735400001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -13423,19 +13628,19 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>7.8512085238717968E-3</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>5.8884063929038472E-3</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>7.8512085238717968E-3</v>
+        <v>0</v>
       </c>
       <c r="G91">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.8884063929038472E-3</v>
+        <v>0</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>113</v>
@@ -13497,19 +13702,19 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>3.2393338916687504E-2</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>2.429500418751563E-2</v>
+        <v>0</v>
       </c>
       <c r="N92">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>3.2393338916687504E-2</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>2.429500418751563E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -13523,19 +13728,19 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>6.9870043009411763E-3</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>5.2402532257058822E-3</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>6.9870043009411763E-3</v>
+        <v>0</v>
       </c>
       <c r="G93">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.2402532257058822E-3</v>
+        <v>0</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>113</v>
@@ -13623,19 +13828,19 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>1.3352429859066666E-2</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>1.00143223943E-2</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.3352429859066666E-2</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.00143223943E-2</v>
+        <v>0</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>113</v>
@@ -13673,19 +13878,19 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>5.1452792964999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>3.8589594723749997E-3</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>5.1452792964999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>3.8589594723749997E-3</v>
+        <v>0</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>113</v>
@@ -13723,19 +13928,19 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>2.0970505005615387E-2</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <f>Tabla4[[#This Row],[Orchard]]*0.75</f>
-        <v>1.5727878754211541E-2</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <f>Tabla4[[#This Row],[Orchard]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>2.0970505005615387E-2</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <f>Tabla4[[#This Row],[Fonarte]]-Tabla4[[#This Row],[Belive]]</f>
-        <v>1.5727878754211541E-2</v>
+        <v>0</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>113</v>
@@ -13747,19 +13952,19 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>1.8325187263799999E-2</v>
+        <v>0</v>
       </c>
       <c r="M97">
         <f>Tabla5[[#This Row],[Orchard]]*0.75</f>
-        <v>1.3743890447849998E-2</v>
+        <v>0</v>
       </c>
       <c r="N97">
         <f>Tabla5[[#This Row],[Orchard]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.8325187263799999E-2</v>
+        <v>0</v>
       </c>
       <c r="O97">
         <f>Tabla5[[#This Row],[Fonarte]]-Tabla5[[#This Row],[Belive]]</f>
-        <v>1.3743890447849998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -13869,19 +14074,19 @@
       </c>
       <c r="D101">
         <f>AVERAGE(Tabla4[Orchard])</f>
-        <v>2.5356287852651743E-2</v>
+        <v>1.8999800846897442E-2</v>
       </c>
       <c r="E101">
         <f>AVERAGE(Tabla4[Fonarte])</f>
-        <v>1.9017215889488816E-2</v>
-      </c>
-      <c r="F101">
+        <v>1.4249850635173079E-2</v>
+      </c>
+      <c r="F101" s="23">
         <f>D101-C101</f>
-        <v>6.4319458752520181E-3</v>
+        <v>7.5458869497717351E-5</v>
       </c>
       <c r="G101" s="23">
         <f>E101-C101</f>
-        <v>9.2873912089092014E-5</v>
+        <v>-4.6744913422266457E-3</v>
       </c>
       <c r="K101">
         <f>AVERAGE(K2:K100)</f>
@@ -13889,19 +14094,19 @@
       </c>
       <c r="L101">
         <f>AVERAGE(Tabla5[Orchard])</f>
-        <v>5.9143118500171787E-2</v>
+        <v>1.1764976245928494E-2</v>
       </c>
       <c r="M101">
         <f>AVERAGE(Tabla5[Fonarte])</f>
-        <v>4.4357338875128834E-2</v>
+        <v>8.8237321844463704E-3</v>
       </c>
       <c r="N101">
         <f>L101-K101</f>
-        <v>5.5701960396234748E-2</v>
+        <v>8.3238181419914535E-3</v>
       </c>
       <c r="O101">
         <f>M101-K101</f>
-        <v>4.0916180771191794E-2</v>
+        <v>5.3825740805093295E-3</v>
       </c>
     </row>
   </sheetData>
@@ -13918,8 +14123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13953,29 +14158,29 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16">
-        <v>0.539921718336</v>
-      </c>
-      <c r="E2" s="16">
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31">
         <f>Tabla6[[#This Row],[Orchard]]*0.75</f>
-        <v>0.40494128875199997</v>
-      </c>
-      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>0.539921718336</v>
-      </c>
-      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>0.40494128875199997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -14090,7 +14295,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>3.3650967240000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -14101,11 +14306,11 @@
       </c>
       <c r="F7">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-3.3650967240000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-3.3650967240000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -14818,7 +15023,7 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>1.9515600000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -14829,11 +15034,11 @@
       </c>
       <c r="F35">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.9515600000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.9515600000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -15156,7 +15361,7 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>4.8672533880000007E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -15167,11 +15372,11 @@
       </c>
       <c r="F48">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-4.8672533880000007E-2</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-4.8672533880000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -15182,7 +15387,7 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>2.3439847230000005E-2</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -15193,11 +15398,11 @@
       </c>
       <c r="F49">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-2.3439847230000005E-2</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-2.3439847230000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -15234,7 +15439,7 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>2.5688788200000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -15245,11 +15450,11 @@
       </c>
       <c r="F51">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-2.5688788200000003E-2</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-2.5688788200000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -15572,7 +15777,7 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>1.3844529180000002E-2</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -15583,11 +15788,11 @@
       </c>
       <c r="F64">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.3844529180000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.3844529180000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -15598,7 +15803,7 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>1.119127032E-2</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -15609,11 +15814,11 @@
       </c>
       <c r="F65">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.119127032E-2</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.119127032E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -15650,7 +15855,7 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>7.314359454000002E-3</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -15661,11 +15866,11 @@
       </c>
       <c r="F67">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-7.314359454000002E-3</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-7.314359454000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -15702,7 +15907,7 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>5.75009982E-3</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -15713,11 +15918,11 @@
       </c>
       <c r="F69">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-5.75009982E-3</v>
+        <v>0</v>
       </c>
       <c r="G69">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-5.75009982E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -15754,7 +15959,7 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>3.2834585249999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -15765,11 +15970,11 @@
       </c>
       <c r="F71">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-3.2834585249999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-3.2834585249999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -15780,7 +15985,7 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>8.1880793999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -15791,11 +15996,11 @@
       </c>
       <c r="F72">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-8.1880793999999993E-3</v>
+        <v>0</v>
       </c>
       <c r="G72">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-8.1880793999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -15832,7 +16037,7 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>5.1464633850000002E-3</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -15843,11 +16048,11 @@
       </c>
       <c r="F74">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-5.1464633850000002E-3</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-5.1464633850000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -15936,7 +16141,7 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>2.8465055235000005E-2</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -15947,11 +16152,11 @@
       </c>
       <c r="F78">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-2.8465055235000005E-2</v>
+        <v>0</v>
       </c>
       <c r="G78">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-2.8465055235000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -16014,7 +16219,7 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>4.8600000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -16025,11 +16230,11 @@
       </c>
       <c r="F81">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-4.8600000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-4.8600000000000002E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -16092,7 +16297,7 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>1.964898E-4</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -16103,11 +16308,11 @@
       </c>
       <c r="F84">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.964898E-4</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.964898E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -16144,7 +16349,7 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>6.4800000000000014E-4</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -16155,11 +16360,11 @@
       </c>
       <c r="F86">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-6.4800000000000014E-4</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-6.4800000000000014E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -16170,7 +16375,7 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>1.9979945999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -16181,11 +16386,11 @@
       </c>
       <c r="F87">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.9979945999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.9979945999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -16196,7 +16401,7 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>5.4269190000000008E-4</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -16207,11 +16412,11 @@
       </c>
       <c r="F88">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-5.4269190000000008E-4</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-5.4269190000000008E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -16222,7 +16427,7 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>3.4830000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -16233,11 +16438,11 @@
       </c>
       <c r="F89">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-3.4830000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-3.4830000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -16352,7 +16557,7 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>8.1000000000000017E-5</v>
+        <v>0</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -16363,11 +16568,11 @@
       </c>
       <c r="F94">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-8.1000000000000017E-5</v>
+        <v>0</v>
       </c>
       <c r="G94">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-8.1000000000000017E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -16404,7 +16609,7 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>8.1000000000000004E-6</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -16415,11 +16620,11 @@
       </c>
       <c r="F96">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-8.1000000000000004E-6</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-8.1000000000000004E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -16456,7 +16661,7 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>1.6200000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -16467,11 +16672,11 @@
       </c>
       <c r="F98">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.6200000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="G98">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>-1.6200000000000001E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -16482,7 +16687,7 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>-4.5229266000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -16493,33 +16698,5282 @@
       </c>
       <c r="F99">
         <f>Tabla6[[#This Row],[Orchard]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>4.5229266000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <f>Tabla6[[#This Row],[Fonarte]]-Tabla6[[#This Row],[Belive]]</f>
-        <v>4.5229266000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C101">
         <f>AVERAGE(C2:C100)</f>
-        <v>1.6345668677310372E-2</v>
+        <v>1.3679664257371599E-2</v>
       </c>
       <c r="D101">
         <f t="shared" ref="D101:E101" si="0">AVERAGE(D2:D100)</f>
-        <v>6.3051857668327882E-2</v>
+        <v>5.7542452379185031E-2</v>
       </c>
       <c r="E101">
         <f t="shared" si="0"/>
-        <v>4.7288893251245905E-2</v>
+        <v>4.3156839284388779E-2</v>
       </c>
       <c r="F101">
         <f>D101-C101</f>
-        <v>4.6706188991017514E-2</v>
+        <v>4.3862788121813434E-2</v>
       </c>
       <c r="G101">
         <f>E101-C101</f>
-        <v>3.0943224573935533E-2</v>
+        <v>2.9477175027017181E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0</v>
+      </c>
+      <c r="E3" s="31">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="31">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.14941260000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.16212456470631248</v>
+      </c>
+      <c r="E9">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0.12159342352973436</v>
+      </c>
+      <c r="F9">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>1.2711964706312473E-2</v>
+      </c>
+      <c r="G9">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-2.7819176470265647E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="29">
+        <v>8.2583172647169231E-2</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.12366551962182611</v>
+      </c>
+      <c r="E12" s="29">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>9.2749139716369583E-2</v>
+      </c>
+      <c r="F12" s="29">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>4.1082346974656875E-2</v>
+      </c>
+      <c r="G12" s="29">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>1.0165967069200352E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="29">
+        <v>6.1888041483428573E-2</v>
+      </c>
+      <c r="D16" s="29">
+        <v>5.7714692583772716E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>4.3286019437829538E-2</v>
+      </c>
+      <c r="F16" s="29">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-4.1733488996558571E-3</v>
+      </c>
+      <c r="G16" s="29">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-1.8602022045599034E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>5.16023999946E-2</v>
+      </c>
+      <c r="D17">
+        <v>4.7546493434363631E-2</v>
+      </c>
+      <c r="E17">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>3.5659870075772725E-2</v>
+      </c>
+      <c r="F17">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-4.0559065602363692E-3</v>
+      </c>
+      <c r="G17">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-1.5942529918827275E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>5.6116800000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.9287821059888881E-2</v>
+      </c>
+      <c r="E18">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>3.6965865794916661E-2</v>
+      </c>
+      <c r="F18">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-6.8289789401111203E-3</v>
+      </c>
+      <c r="G18">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-1.9150934205083341E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>0.13029659999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.15395890145466665</v>
+      </c>
+      <c r="E22">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0.11546917609099999</v>
+      </c>
+      <c r="F22">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>2.3662301454666662E-2</v>
+      </c>
+      <c r="G22">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-1.4827423908999993E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0</v>
+      </c>
+      <c r="D23" s="31">
+        <v>0</v>
+      </c>
+      <c r="E23" s="31">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="31">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="31">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0</v>
+      </c>
+      <c r="D24" s="31">
+        <v>0</v>
+      </c>
+      <c r="E24" s="31">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="31">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="31">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="16">
+        <v>3.7586970001080001E-2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.12060469150900002</v>
+      </c>
+      <c r="E26" s="16">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>9.0453518631750024E-2</v>
+      </c>
+      <c r="F26" s="16">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>8.3017721507920028E-2</v>
+      </c>
+      <c r="G26" s="16">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>5.2866548630670022E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>1.3502699999999999E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.596341473727273E-2</v>
+      </c>
+      <c r="E33">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>1.9472561052954546E-2</v>
+      </c>
+      <c r="F33">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>1.246071473727273E-2</v>
+      </c>
+      <c r="G33">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>5.9698610529545469E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>6.4508400000000007E-2</v>
+      </c>
+      <c r="D38">
+        <v>8.906652337934616E-2</v>
+      </c>
+      <c r="E38">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>6.6799892534509617E-2</v>
+      </c>
+      <c r="F38">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>2.4558123379346153E-2</v>
+      </c>
+      <c r="G38">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>2.2914925345096093E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>3.0942000000000001E-2</v>
+      </c>
+      <c r="D44">
+        <v>5.080158484348387E-2</v>
+      </c>
+      <c r="E44">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>3.8101188632612901E-2</v>
+      </c>
+      <c r="F44">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>1.9859584843483869E-2</v>
+      </c>
+      <c r="G44">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>7.1591886326128999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>9.4964400000000004E-2</v>
+      </c>
+      <c r="D53">
+        <v>8.1915676310142863E-2</v>
+      </c>
+      <c r="E53">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>6.143675723260715E-2</v>
+      </c>
+      <c r="F53">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-1.3048723689857142E-2</v>
+      </c>
+      <c r="G53">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-3.3527642767392854E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>0.1563138</v>
+      </c>
+      <c r="D54">
+        <v>0.20305753768636367</v>
+      </c>
+      <c r="E54">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0.15229315326477275</v>
+      </c>
+      <c r="F54">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>4.6743737686363668E-2</v>
+      </c>
+      <c r="G54">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>-4.0206467352272568E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="31">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f>Tabla7[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f>Tabla7[[#This Row],[Orchard]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f>Tabla7[[#This Row],[Fonarte]]-Tabla7[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f>AVERAGE(C2:C100)</f>
+        <v>9.4869171849620189E-3</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ref="D101:E101" si="0">AVERAGE(D2:D100)</f>
+        <v>1.1894973687004486E-2</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="0"/>
+        <v>8.9212302652533649E-3</v>
+      </c>
+      <c r="F101">
+        <f>D101-C101</f>
+        <v>2.4080565020424671E-3</v>
+      </c>
+      <c r="G101">
+        <f>E101-C101</f>
+        <v>-5.6568691970865399E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>8.1885984151950003E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.15726927331358426</v>
+      </c>
+      <c r="E7">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.11795195498518819</v>
+      </c>
+      <c r="F7">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>7.5383289161634254E-2</v>
+      </c>
+      <c r="G7">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.606597083323819E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>0.1338201</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-0.1338201</v>
+      </c>
+      <c r="G8">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-0.1338201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>9.9808200000000014E-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-9.9808200000000014E-2</v>
+      </c>
+      <c r="G13">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-9.9808200000000014E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>6.1941641145749994E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.12328366228144289</v>
+      </c>
+      <c r="E16">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>9.2462746711082164E-2</v>
+      </c>
+      <c r="F16">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>6.1342021135692891E-2</v>
+      </c>
+      <c r="G16">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.052110556533217E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>6.905735309556002E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.13529992454000001</v>
+      </c>
+      <c r="E19">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.101474943405</v>
+      </c>
+      <c r="F19">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>6.6242571444439985E-2</v>
+      </c>
+      <c r="G19">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.2417590309439984E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>4.9950187398514298E-2</v>
+      </c>
+      <c r="D20">
+        <v>8.265965333113437E-2</v>
+      </c>
+      <c r="E20">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>6.1994739998350777E-2</v>
+      </c>
+      <c r="F20">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.2709465932620072E-2</v>
+      </c>
+      <c r="G20">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.2044552599836479E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>3.2748005008800006E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.3264116788570926E-2</v>
+      </c>
+      <c r="E21">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>4.7448087591428198E-2</v>
+      </c>
+      <c r="F21">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.051611177977092E-2</v>
+      </c>
+      <c r="G21">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.4700082582628192E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>7.3588489480800004E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.1061067708476119</v>
+      </c>
+      <c r="E25">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>7.9580078135708929E-2</v>
+      </c>
+      <c r="F25">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.2518281366811896E-2</v>
+      </c>
+      <c r="G25">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>5.9915886549089248E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>4.9933748412000004E-2</v>
+      </c>
+      <c r="D28">
+        <v>6.9540005320000015E-3</v>
+      </c>
+      <c r="E28">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>5.2155003990000011E-3</v>
+      </c>
+      <c r="F28">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-4.2979747880000002E-2</v>
+      </c>
+      <c r="G28">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-4.4718248013000006E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.14696885304558083</v>
+      </c>
+      <c r="E32">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.11022663978418562</v>
+      </c>
+      <c r="F32">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0.14696885304558083</v>
+      </c>
+      <c r="G32">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0.11022663978418562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>7.2482400000000002E-2</v>
+      </c>
+      <c r="D34">
+        <v>8.1690061859999996E-3</v>
+      </c>
+      <c r="E34">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>6.1267546394999997E-3</v>
+      </c>
+      <c r="F34">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-6.4313393814000003E-2</v>
+      </c>
+      <c r="G34">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-6.635564536050001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>8.8053480000000003E-2</v>
+      </c>
+      <c r="D36">
+        <v>1.3683145668500001E-2</v>
+      </c>
+      <c r="E36">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>1.0262359251375001E-2</v>
+      </c>
+      <c r="F36">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-7.4370334331500004E-2</v>
+      </c>
+      <c r="G36">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-7.7791120748625001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>7.1085600000000013E-2</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-7.1085600000000013E-2</v>
+      </c>
+      <c r="G38">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-7.1085600000000013E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>4.5908570163150003E-2</v>
+      </c>
+      <c r="D39">
+        <v>5.4634485369999999E-2</v>
+      </c>
+      <c r="E39">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>4.0975864027500003E-2</v>
+      </c>
+      <c r="F39">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>8.7259152068499962E-3</v>
+      </c>
+      <c r="G39">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-4.9327061356500002E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42">
+        <v>8.0022684990600002E-2</v>
+      </c>
+      <c r="D42">
+        <v>7.0737198564096493E-2</v>
+      </c>
+      <c r="E42">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>5.305289892307237E-2</v>
+      </c>
+      <c r="F42">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-9.2854864265035086E-3</v>
+      </c>
+      <c r="G42">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-2.6969786067527632E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <v>1.5723021164400001E-2</v>
+      </c>
+      <c r="D44">
+        <v>1.8417035850000006E-2</v>
+      </c>
+      <c r="E44">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>1.3812776887500005E-2</v>
+      </c>
+      <c r="F44">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.6940146856000054E-3</v>
+      </c>
+      <c r="G44">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-1.9102442768999962E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>5.5349826714000006E-3</v>
+      </c>
+      <c r="D45">
+        <v>8.5051839008421032E-2</v>
+      </c>
+      <c r="E45">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>6.3788879256315767E-2</v>
+      </c>
+      <c r="F45">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>7.9516856337021033E-2</v>
+      </c>
+      <c r="G45">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>5.8253896584915768E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>8.1973810222424989E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.11185176716277757</v>
+      </c>
+      <c r="E47">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>8.3888825372083184E-2</v>
+      </c>
+      <c r="F47">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.9877956940352585E-2</v>
+      </c>
+      <c r="G47">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.9150151496581946E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>8.492580000000001E-2</v>
+      </c>
+      <c r="D48">
+        <v>0.14220951471900001</v>
+      </c>
+      <c r="E48">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.10665713603925001</v>
+      </c>
+      <c r="F48">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>5.7283714718999998E-2</v>
+      </c>
+      <c r="G48">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.1731336039249996E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>8.0173999746000008E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.14524855147948756</v>
+      </c>
+      <c r="E49">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.10893641360961567</v>
+      </c>
+      <c r="F49">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>6.5074551733487557E-2</v>
+      </c>
+      <c r="G49">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.8762413863615666E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>5.6581565688000011E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.14332214583093744</v>
+      </c>
+      <c r="E52">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.10749160937320308</v>
+      </c>
+      <c r="F52">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>8.6740580142937423E-2</v>
+      </c>
+      <c r="G52">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>5.091004368520307E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>3.2656365260672733E-2</v>
+      </c>
+      <c r="D60">
+        <v>5.7096931296221863E-2</v>
+      </c>
+      <c r="E60">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>4.2822698472166396E-2</v>
+      </c>
+      <c r="F60">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.444056603554913E-2</v>
+      </c>
+      <c r="G60">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.0166333211493662E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>9.3943800000000022E-2</v>
+      </c>
+      <c r="D63">
+        <v>0.24264689859999999</v>
+      </c>
+      <c r="E63">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.18198517395</v>
+      </c>
+      <c r="F63">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0.14870309859999997</v>
+      </c>
+      <c r="G63">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>8.8041373949999974E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>4.1496917238000003E-2</v>
+      </c>
+      <c r="D71">
+        <v>7.6977591789034627E-2</v>
+      </c>
+      <c r="E71">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>5.773319384177597E-2</v>
+      </c>
+      <c r="F71">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.5480674551034624E-2</v>
+      </c>
+      <c r="G71">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.6236276603775968E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>5.3763868133100003E-2</v>
+      </c>
+      <c r="D73">
+        <v>7.9833210335237964E-2</v>
+      </c>
+      <c r="E73">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>5.9874907751428473E-2</v>
+      </c>
+      <c r="F73">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.6069342202137961E-2</v>
+      </c>
+      <c r="G73">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>6.1110396183284704E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>8.2139400000000001E-2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-8.2139400000000001E-2</v>
+      </c>
+      <c r="G74">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-8.2139400000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>5.2343633651400011E-2</v>
+      </c>
+      <c r="D76">
+        <v>9.3805925892800027E-2</v>
+      </c>
+      <c r="E76">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>7.0354444419600023E-2</v>
+      </c>
+      <c r="F76">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>4.1462292241400016E-2</v>
+      </c>
+      <c r="G76">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.8010810768200013E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>2.3436501346800004E-2</v>
+      </c>
+      <c r="D77">
+        <v>3.4788049300238211E-2</v>
+      </c>
+      <c r="E77">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>2.6091036975178658E-2</v>
+      </c>
+      <c r="F77">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.1351547953438207E-2</v>
+      </c>
+      <c r="G77">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.6545356283786542E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <v>5.4852878300400004E-2</v>
+      </c>
+      <c r="D80">
+        <v>3.9705259553142858E-2</v>
+      </c>
+      <c r="E80">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>2.9778944664857143E-2</v>
+      </c>
+      <c r="F80">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-1.5147618747257147E-2</v>
+      </c>
+      <c r="G80">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-2.5073933635542861E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83">
+        <v>3.1337345375100002E-2</v>
+      </c>
+      <c r="D83">
+        <v>6.1986525553000056E-2</v>
+      </c>
+      <c r="E83">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>4.6489894164750044E-2</v>
+      </c>
+      <c r="F83">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.0649180177900054E-2</v>
+      </c>
+      <c r="G83">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.5152548789650042E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>8.5608900000000002E-2</v>
+      </c>
+      <c r="D84">
+        <v>8.7739543509000012E-2</v>
+      </c>
+      <c r="E84">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>6.5804657631750002E-2</v>
+      </c>
+      <c r="F84">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>2.1306435090000103E-3</v>
+      </c>
+      <c r="G84">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-1.980424236825E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>0.1531500684282</v>
+      </c>
+      <c r="D87">
+        <v>2.6471983158500002E-2</v>
+      </c>
+      <c r="E87">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>1.9853987368875003E-2</v>
+      </c>
+      <c r="F87">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-0.12667808526970001</v>
+      </c>
+      <c r="G87">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-0.133296081059325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88">
+        <v>5.6652745615199999E-2</v>
+      </c>
+      <c r="D88">
+        <v>0.13565286931000009</v>
+      </c>
+      <c r="E88">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0.10173965198250007</v>
+      </c>
+      <c r="F88">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>7.9000123694800084E-2</v>
+      </c>
+      <c r="G88">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>4.5086906367300068E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>1.7423515011600003E-2</v>
+      </c>
+      <c r="D93">
+        <v>3.0947024540258664E-2</v>
+      </c>
+      <c r="E93">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>2.3210268405193999E-2</v>
+      </c>
+      <c r="F93">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.3523509528658662E-2</v>
+      </c>
+      <c r="G93">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>5.7867533935939963E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96">
+        <v>0.121836492895275</v>
+      </c>
+      <c r="D96">
+        <v>1.018026954E-2</v>
+      </c>
+      <c r="E96">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>7.6352021549999996E-3</v>
+      </c>
+      <c r="F96">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-0.111656223355275</v>
+      </c>
+      <c r="G96">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>-0.11420129074027499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>7.4251323739565236E-2</v>
+      </c>
+      <c r="D97">
+        <v>0.1126579694953995</v>
+      </c>
+      <c r="E97">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>8.4493477121549615E-2</v>
+      </c>
+      <c r="F97">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>3.8406645755834259E-2</v>
+      </c>
+      <c r="G97">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>1.0242153381984379E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f>Tabla8[[#This Row],[Orchard]]*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>Tabla8[[#This Row],[Orchard]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f>Tabla8[[#This Row],[Fonarte]]-Tabla8[[#This Row],[Belive]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f>AVERAGE(C2:C101)</f>
+        <v>2.3815395652934664E-2</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ref="D102:E102" si="0">AVERAGE(D2:D101)</f>
+        <v>2.760837751420386E-2</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>2.049712876054529E-2</v>
+      </c>
+      <c r="F102">
+        <f>D102-C102</f>
+        <v>3.7929818612691957E-3</v>
+      </c>
+      <c r="G102">
+        <f>E102-C102</f>
+        <v>-3.3182668923893745E-3</v>
       </c>
     </row>
   </sheetData>
